--- a/DMSNewVSale_2025-10-15_19-50.xlsx
+++ b/DMSNewVSale_2025-10-15_19-50.xlsx
@@ -152,6 +152,18 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -386,13 +395,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:2</t>
+    <t>11:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EKIROZ 40 MG 14 TAB</t>
@@ -557,10 +566,22 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
     <t>114.00</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
@@ -1834,7 +1855,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1867,7 +1888,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1916,7 +1937,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1926,14 +1947,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1942,14 +1963,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1966,7 +1987,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1982,7 +2003,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2015,7 +2036,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2025,14 +2046,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2041,14 +2062,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2074,14 +2095,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2091,14 +2112,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2107,14 +2128,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2131,7 +2152,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2164,7 +2185,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2180,7 +2201,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2230,7 +2251,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2246,7 +2267,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2256,11 +2277,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2272,14 +2293,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,7 +2333,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2322,11 +2343,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2338,14 +2359,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2355,14 +2376,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2371,20 +2392,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2411,24 +2432,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2437,14 +2458,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2454,14 +2475,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2470,14 +2491,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2487,14 +2508,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,11 +2541,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2536,14 +2557,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2553,7 +2574,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2576,7 +2597,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2586,14 +2607,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2602,20 +2623,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2626,7 +2647,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2642,24 +2663,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2668,14 +2689,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2685,14 +2706,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2701,14 +2722,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2722,7 +2743,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>11</v>
@@ -2734,14 +2755,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2758,7 +2779,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2774,7 +2795,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,7 +2828,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2824,7 +2845,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2840,13 +2861,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2857,7 +2878,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2873,13 +2894,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2887,7 +2908,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2899,7 +2920,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2939,7 +2960,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2956,7 +2977,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2972,24 +2993,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3005,24 +3026,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3071,7 +3092,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3097,14 +3118,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3114,14 +3135,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3130,14 +3151,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3147,11 +3168,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3170,7 +3191,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3180,11 +3201,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3196,14 +3217,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3217,7 +3238,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3229,14 +3250,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3246,11 +3267,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3262,14 +3283,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3279,14 +3300,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3295,14 +3316,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3312,11 +3333,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3328,14 +3349,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3345,11 +3366,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>11</v>
@@ -3361,14 +3382,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3378,11 +3399,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3394,14 +3415,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3411,14 +3432,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3427,14 +3448,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3444,14 +3465,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3460,14 +3481,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3477,14 +3498,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3493,14 +3514,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3510,14 +3531,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3526,14 +3547,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3543,14 +3564,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3559,14 +3580,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3576,14 +3597,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3592,20 +3613,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3613,10 +3634,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,14 +3646,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3642,14 +3663,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3658,14 +3679,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3675,14 +3696,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3691,31 +3712,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3731,7 +3752,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3745,10 +3766,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,14 +3778,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3774,14 +3795,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3790,14 +3811,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3807,14 +3828,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3823,14 +3844,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3840,14 +3861,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3856,14 +3877,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3873,14 +3894,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3889,14 +3910,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3906,14 +3927,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3922,14 +3943,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3939,14 +3960,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3955,14 +3976,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3972,14 +3993,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3995,21 +4016,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4021,28 +4042,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4054,31 +4075,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4087,14 +4108,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4104,14 +4125,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4120,14 +4141,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4137,14 +4158,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4153,14 +4174,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4170,14 +4191,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4186,14 +4207,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4203,11 +4224,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>38</v>
@@ -4219,14 +4240,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4236,14 +4257,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4252,14 +4273,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4269,14 +4290,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4285,14 +4306,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4302,14 +4323,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4318,14 +4339,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4335,11 +4356,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4351,14 +4372,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4368,7 +4389,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4391,7 +4412,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4405,10 +4426,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4417,14 +4438,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4434,51 +4455,150 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="97" ht="26.25" customHeight="1">
-      <c r="N97" s="13">
-        <v>5002.8599999999997</v>
-      </c>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>275</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>174</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>24</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>253</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>14</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>20</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>24</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>280</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>281</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>252</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>24</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>276</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>277</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="N100" s="13">
+        <v>5236.6999999999998</v>
+      </c>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>282</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>283</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>284</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4937,10 +5057,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
